--- a/medicine/Psychotrope/Château_Barde-Haut/Château_Barde-Haut.xlsx
+++ b/medicine/Psychotrope/Château_Barde-Haut/Château_Barde-Haut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Barde-Haut</t>
+          <t>Château_Barde-Haut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Château Barde-Haut est un domaine viticole de 17 hectares en Saint-Émilion Grand Cru. En 2012, il est promu « Grand Cru Classé » au sein du classement des vins de Saint-Émilion. Le domaine est localisé sur la commune de Saint-Christophe-des-Bardes au sein de la juridiction de Saint-Emilion, qui a été classée en 1999 au Patrimoine mondial de l'UNESCO.
 Le château est également connu pour son architecture moderne et écoresponsable en acier Corten, surmonté d'une éolienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Barde-Haut</t>
+          <t>Château_Barde-Haut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trois siècles d'histoire
-La plus ancienne trace écrite de l'existence du domaine date de 1780, puisque la propriété figure sur la carte de Belleyme, sous le nom de « La Barde ». En 1830, le vignoble est constitué d'un seul tenant, il appartient alors à la veuve Laveau, et restera quasiment inchangé depuis lors. C'est à cette époque que la propriété devient « Château Barde-Haut ». De 1880 à 1944, le Château connaît une ascension qualitative importante, et est cité dans le classement Féret successivement comme « Second Cru de Saint-Emilion » et « Deuxième Premier Cru de Saint-Emilion ». 
+          <t>Trois siècles d'histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne trace écrite de l'existence du domaine date de 1780, puisque la propriété figure sur la carte de Belleyme, sous le nom de « La Barde ». En 1830, le vignoble est constitué d'un seul tenant, il appartient alors à la veuve Laveau, et restera quasiment inchangé depuis lors. C'est à cette époque que la propriété devient « Château Barde-Haut ». De 1880 à 1944, le Château connaît une ascension qualitative importante, et est cité dans le classement Féret successivement comme « Second Cru de Saint-Emilion » et « Deuxième Premier Cru de Saint-Emilion ». 
 C'est en 1944 qu'il devient la propriété de la famille Gasparoux, qui travaille au développement qualitatif et à la reconnaissance de ces vins alors que l'AOC Saint-Émilion connaît peu à peu un immense succès international. En 1997, l'ensemble du cuvier est refait à neuf, avec des petites cuves de 50 à 70 hl en béton et en bois permettant vinification parcellaire et travaille par gravité.
-XXIe siècle
-En 2000, Sylviane Garcin-Cathiard, propriétaire des Châteaux Haut-Bergey, Branon (Pessac-léognan) et Clos l’Église (Pomerol) rachète le domaine, aujourd'hui géré par sa fille Hélène Garcin-Lévêque et le mari de cette dernière, Patrice Lévêque. En 2008, un projet de rénovation confié au cabinet Nadau-Lavergne démarre. L'inauguration des bâtiments aura lieu 3 ans plus tard, mettant en valeur un ensemble HQE (Haute Qualité Environnementale) marqué par des bâtiments en Corten rouillé et une éolienne surplombant le domaine.
-En 2012, lors de la parution décennale du Classement des vins de Saint-Emilion, le Château, reconnu de longue date comme l’une des étoiles montantes de l’appellation, atteint la consécration en étant promu Grand Cru Classé.
-Hélène et Patrice Garcin-Lévêque sont également propriétaires de Poesia estates, qui comprend Bodega Poesia, acquise en 2001 en Argentine, dans la province de Mendoza à Luján de Cuyo ; et Château Poesia, acquis en 2013, en AOC Saint-Emilion Grand Cru.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Barde-Haut</t>
+          <t>Château_Barde-Haut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +559,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, Sylviane Garcin-Cathiard, propriétaire des Châteaux Haut-Bergey, Branon (Pessac-léognan) et Clos l’Église (Pomerol) rachète le domaine, aujourd'hui géré par sa fille Hélène Garcin-Lévêque et le mari de cette dernière, Patrice Lévêque. En 2008, un projet de rénovation confié au cabinet Nadau-Lavergne démarre. L'inauguration des bâtiments aura lieu 3 ans plus tard, mettant en valeur un ensemble HQE (Haute Qualité Environnementale) marqué par des bâtiments en Corten rouillé et une éolienne surplombant le domaine.
+En 2012, lors de la parution décennale du Classement des vins de Saint-Emilion, le Château, reconnu de longue date comme l’une des étoiles montantes de l’appellation, atteint la consécration en étant promu Grand Cru Classé.
+Hélène et Patrice Garcin-Lévêque sont également propriétaires de Poesia estates, qui comprend Bodega Poesia, acquise en 2001 en Argentine, dans la province de Mendoza à Luján de Cuyo ; et Château Poesia, acquis en 2013, en AOC Saint-Emilion Grand Cru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_Barde-Haut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Barde-Haut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 2011, le Château Barde-Haut fait peau neuve, inaugurant des chais novateurs et répondant aux normes HQE (Haute Qualité Environnementale). Cet ensemble couleur rouille répondait au désir de s'intégrer dans un paysage hors du commun classé au patrimoine mondial de l'UNESCO. Le cabinet d'architectes Nadau-Lavergne, qui a conçu l'ensemble explique la difficulté et l'intérêt du projet :
-« Il s'agissait de concilier l’identité d’une terre, son exception et son cachet, avec les innovations techniques. Le choix d’une architecture contemporaine répond à cette apparente contradiction. »[1]
+« Il s'agissait de concilier l’identité d’une terre, son exception et son cachet, avec les innovations techniques. Le choix d’une architecture contemporaine répond à cette apparente contradiction. »
 L'ensemble des infrastructures présentées regroupe : 
 Des puits canadiens permettent de réduire les amplitudes thermiques pour les espaces intérieurs du chai et du cuvier, limitant d'autant la consommation d'énergie.
 La toiture végétalisée favorise l'insertion du volume contemporain dans le site, renforce l'isolation et filtre les eaux de pluie.
@@ -565,31 +619,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ch%C3%A2teau_Barde-Haut</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_Barde-Haut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Barde-Haut</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de 17 hectares s’étend d’un seul tenant sur des sols argilo-calcaires sur roche mère calcaire. Il forme un amphithéâtre orienté sud en direction de la vallée de la Dordogne.
 L'âge moyen du vignoble est de 33 ans, on y trouve de très vieilles vignes plantées dans l'après-guerre, mais aussi de jeunes vignes vigoureuses dont les porte-greffes ont été adaptés au terroir dans lequel ils sont plantés.
@@ -599,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ch%C3%A2teau_Barde-Haut</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_Barde-Haut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Barde-Haut</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Château Barde-Haut produit deux vins :
 Barde-Haut, Saint-Emilion Grand Cru Classé
